--- a/XCustPr/doc/60-12-03/PO002_TEST_RESULT.xlsx
+++ b/XCustPr/doc/60-12-03/PO002_TEST_RESULT.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01_ICE_2016\RD\00_PMO_Templates (13-May)\70-Customization\73-Unit Test\PO002\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22992" windowHeight="4068"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="4065" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Test Case" sheetId="1" r:id="rId1"/>
@@ -24,7 +19,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">CASE2_PO!$A$3:$BK$3</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">CASE2_PR!$A$2:$BG$2</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2767" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2769" uniqueCount="255">
   <si>
     <t>Case</t>
   </si>
@@ -802,6 +797,12 @@
   <si>
     <t>CASE5</t>
   </si>
+  <si>
+    <t>case2_pr</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> create_date ข้อมูล จาก web service ไม่ได้ลง time มาให้</t>
+  </si>
 </sst>
 </file>
 
@@ -1285,7 +1286,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1320,7 +1321,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1497,7 +1498,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1505,28 +1506,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.19921875" style="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.25" style="9" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="47" style="9" customWidth="1"/>
-    <col min="3" max="3" width="39.796875" style="9" customWidth="1"/>
-    <col min="4" max="4" width="14.59765625" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.09765625" style="9" customWidth="1"/>
-    <col min="6" max="16384" width="8.796875" style="9"/>
+    <col min="3" max="3" width="43.25" style="9" customWidth="1"/>
+    <col min="4" max="4" width="14.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.125" style="9" customWidth="1"/>
+    <col min="6" max="16384" width="8.75" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="19" t="s">
         <v>1</v>
       </c>
@@ -1543,7 +1544,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A3" s="20">
         <v>1</v>
       </c>
@@ -1560,7 +1561,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A4" s="20">
         <v>2</v>
       </c>
@@ -1577,7 +1578,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="105.6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="102" x14ac:dyDescent="0.2">
       <c r="A5" s="20">
         <v>3</v>
       </c>
@@ -1597,7 +1598,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="20">
         <v>4</v>
       </c>
@@ -1617,7 +1618,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="20">
         <v>5</v>
       </c>
@@ -1635,7 +1636,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="20">
         <v>6</v>
       </c>
@@ -1655,7 +1656,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="20">
         <v>7</v>
       </c>
@@ -1675,7 +1676,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="20">
         <v>8</v>
       </c>
@@ -1695,7 +1696,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="20">
         <v>9</v>
       </c>
@@ -1715,8 +1716,16 @@
         <v>251</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="23"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B15" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>254</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1731,18 +1740,18 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="44" customWidth="1"/>
-    <col min="4" max="4" width="15.69921875" customWidth="1"/>
-    <col min="5" max="5" width="6.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.75" customWidth="1"/>
+    <col min="5" max="5" width="6.375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.8984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>27</v>
       </c>
@@ -1765,7 +1774,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="69" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="57" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1801,14 +1810,14 @@
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>25</v>
       </c>
@@ -1823,20 +1832,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BG79"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.69921875" defaultRowHeight="91.2" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="21.75" defaultRowHeight="91.15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="5" width="21.69921875" style="9"/>
-    <col min="6" max="6" width="21.69921875" style="11"/>
-    <col min="7" max="22" width="21.69921875" style="9"/>
-    <col min="23" max="23" width="21.69921875" style="11"/>
-    <col min="24" max="16384" width="21.69921875" style="9"/>
+    <col min="1" max="5" width="21.75" style="9"/>
+    <col min="6" max="6" width="21.75" style="11"/>
+    <col min="7" max="22" width="21.75" style="9"/>
+    <col min="23" max="23" width="21.75" style="11"/>
+    <col min="24" max="16384" width="21.75" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:59" ht="91.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:59" ht="91.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F1" s="11" t="s">
         <v>180</v>
       </c>
@@ -1844,7 +1853,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="2" spans="1:59" ht="91.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:59" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
         <v>40</v>
       </c>
@@ -2023,7 +2032,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="3" spans="1:59" ht="91.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:59" ht="91.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
         <v>99</v>
       </c>
@@ -2154,7 +2163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:59" ht="91.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:59" ht="91.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
         <v>114</v>
       </c>
@@ -2285,7 +2294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:59" ht="91.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:59" ht="91.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="10">
         <v>217000025</v>
       </c>
@@ -2416,7 +2425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:59" ht="91.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:59" ht="91.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="10">
         <v>217000025</v>
       </c>
@@ -2547,7 +2556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:59" ht="91.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:59" ht="91.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="10">
         <v>217000026</v>
       </c>
@@ -2678,7 +2687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:59" ht="91.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:59" ht="91.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="10">
         <v>217000027</v>
       </c>
@@ -2809,7 +2818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:59" ht="91.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:59" ht="91.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="10">
         <v>217000028</v>
       </c>
@@ -2940,7 +2949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:59" ht="91.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:59" ht="91.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="10">
         <v>217000029</v>
       </c>
@@ -3071,7 +3080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:59" ht="91.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:59" ht="91.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="10">
         <v>217000030</v>
       </c>
@@ -3202,7 +3211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:59" ht="91.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:59" ht="91.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="10">
         <v>217000031</v>
       </c>
@@ -3333,7 +3342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:59" ht="91.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:59" ht="91.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="10">
         <v>217000032</v>
       </c>
@@ -3464,7 +3473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:59" ht="91.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:59" ht="91.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="10">
         <v>217000032</v>
       </c>
@@ -3595,7 +3604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:59" ht="91.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:59" ht="91.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="10">
         <v>217000033</v>
       </c>
@@ -3726,7 +3735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:59" ht="91.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:59" ht="91.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="10">
         <v>217000034</v>
       </c>
@@ -3857,7 +3866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:59" ht="91.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:59" ht="91.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="10">
         <v>217000035</v>
       </c>
@@ -3988,7 +3997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:59" ht="91.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:59" ht="91.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="10">
         <v>217000035</v>
       </c>
@@ -4119,7 +4128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:59" ht="91.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:59" ht="91.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="10">
         <v>217000036</v>
       </c>
@@ -4250,7 +4259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:59" ht="91.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:59" ht="91.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="10">
         <v>217000116</v>
       </c>
@@ -4381,7 +4390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:59" ht="91.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:59" ht="91.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="10">
         <v>217000117</v>
       </c>
@@ -4512,7 +4521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:59" ht="91.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:59" ht="91.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="10">
         <v>217000118</v>
       </c>
@@ -4643,7 +4652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:59" ht="91.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:59" ht="91.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="10">
         <v>217000119</v>
       </c>
@@ -4774,7 +4783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:59" ht="91.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:59" ht="91.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="10">
         <v>217000120</v>
       </c>
@@ -4905,7 +4914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:59" ht="91.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:59" ht="91.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="10">
         <v>217000121</v>
       </c>
@@ -5036,7 +5045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:59" ht="91.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:59" ht="91.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="10">
         <v>217000122</v>
       </c>
@@ -5167,7 +5176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:59" ht="91.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:59" ht="91.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="10">
         <v>217000123</v>
       </c>
@@ -5298,7 +5307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:59" ht="91.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:59" ht="91.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="10">
         <v>217000124</v>
       </c>
@@ -5429,7 +5438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:59" ht="91.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:59" ht="91.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="10">
         <v>217000125</v>
       </c>
@@ -5560,7 +5569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:59" ht="91.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:59" ht="91.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="10">
         <v>217000126</v>
       </c>
@@ -5691,7 +5700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:59" ht="91.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:59" ht="91.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="10">
         <v>217000023</v>
       </c>
@@ -5822,7 +5831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:59" ht="91.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:59" ht="91.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="10">
         <v>217000024</v>
       </c>
@@ -5953,7 +5962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:59" ht="91.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:59" ht="91.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="10">
         <v>217000039</v>
       </c>
@@ -6084,7 +6093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:59" ht="91.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:59" ht="91.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="10">
         <v>217000037</v>
       </c>
@@ -6215,7 +6224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:59" ht="91.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:59" ht="91.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="10">
         <v>217000038</v>
       </c>
@@ -6346,7 +6355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:59" ht="91.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:59" ht="91.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="10">
         <v>217000040</v>
       </c>
@@ -6477,7 +6486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:59" ht="91.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:59" ht="91.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="10">
         <v>217000041</v>
       </c>
@@ -6608,7 +6617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:59" ht="91.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:59" ht="91.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="10">
         <v>217000042</v>
       </c>
@@ -6739,7 +6748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:59" ht="91.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:59" ht="91.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="10">
         <v>217000043</v>
       </c>
@@ -6870,7 +6879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:59" ht="91.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:59" ht="91.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="10">
         <v>217000043</v>
       </c>
@@ -7001,7 +7010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:59" ht="91.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:59" ht="91.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="10" t="s">
         <v>142</v>
       </c>
@@ -7132,7 +7141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:59" ht="91.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:59" ht="91.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="10" t="s">
         <v>143</v>
       </c>
@@ -7263,7 +7272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:59" ht="91.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:59" ht="91.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="10" t="s">
         <v>144</v>
       </c>
@@ -7394,7 +7403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:59" ht="91.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:59" ht="91.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="10" t="s">
         <v>145</v>
       </c>
@@ -7525,7 +7534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:59" ht="91.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:59" ht="91.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="10" t="s">
         <v>146</v>
       </c>
@@ -7656,7 +7665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:59" ht="91.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:59" ht="91.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="10" t="s">
         <v>147</v>
       </c>
@@ -7787,7 +7796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:59" ht="91.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:59" ht="91.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="10" t="s">
         <v>148</v>
       </c>
@@ -7918,7 +7927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:59" ht="91.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:59" ht="91.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="10" t="s">
         <v>149</v>
       </c>
@@ -8049,7 +8058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:59" ht="91.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:59" ht="91.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="10" t="s">
         <v>149</v>
       </c>
@@ -8180,7 +8189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:59" ht="91.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:59" ht="91.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="10">
         <v>217000019</v>
       </c>
@@ -8311,7 +8320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:59" ht="91.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:59" ht="91.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="10" t="s">
         <v>150</v>
       </c>
@@ -8442,7 +8451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:59" ht="91.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:59" ht="91.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="10" t="s">
         <v>153</v>
       </c>
@@ -8573,7 +8582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:59" ht="91.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:59" ht="91.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="10">
         <v>217000020</v>
       </c>
@@ -8704,7 +8713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:59" ht="91.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:59" ht="91.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="10">
         <v>217000021</v>
       </c>
@@ -8835,7 +8844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:59" ht="91.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:59" ht="91.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="10">
         <v>217000127</v>
       </c>
@@ -8966,7 +8975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:59" ht="91.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:59" ht="91.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="10">
         <v>217000129</v>
       </c>
@@ -9097,7 +9106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:59" ht="91.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:59" ht="91.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="10">
         <v>217000130</v>
       </c>
@@ -9228,7 +9237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:59" ht="91.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:59" ht="91.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="10">
         <v>217000131</v>
       </c>
@@ -9359,7 +9368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:59" ht="91.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:59" ht="91.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="10">
         <v>217000133</v>
       </c>
@@ -9490,7 +9499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:59" ht="91.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:59" ht="91.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="10">
         <v>217000134</v>
       </c>
@@ -9621,7 +9630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:59" ht="91.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:59" ht="91.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="10">
         <v>217000135</v>
       </c>
@@ -9752,7 +9761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:59" ht="91.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:59" ht="91.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="10">
         <v>217000136</v>
       </c>
@@ -9883,7 +9892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:59" ht="91.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:59" ht="91.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="10">
         <v>217000143</v>
       </c>
@@ -10014,7 +10023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:59" ht="91.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:59" ht="91.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="10">
         <v>217000144</v>
       </c>
@@ -10145,7 +10154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:59" ht="91.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:59" ht="91.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="10">
         <v>217000145</v>
       </c>
@@ -10276,7 +10285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:59" ht="91.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:59" ht="91.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="10">
         <v>217000146</v>
       </c>
@@ -10407,7 +10416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:59" ht="91.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:59" ht="91.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="10">
         <v>217000147</v>
       </c>
@@ -10538,7 +10547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:59" ht="91.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:59" ht="91.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="10">
         <v>217000148</v>
       </c>
@@ -10669,7 +10678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:59" ht="91.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:59" ht="91.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="10">
         <v>217000149</v>
       </c>
@@ -10800,7 +10809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:59" ht="91.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:59" ht="91.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="10">
         <v>217000150</v>
       </c>
@@ -10931,7 +10940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:59" ht="91.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:59" ht="91.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="10">
         <v>217000151</v>
       </c>
@@ -11062,7 +11071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:59" ht="91.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:59" ht="91.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="10">
         <v>217000132</v>
       </c>
@@ -11193,7 +11202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:59" ht="91.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:59" ht="91.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="10">
         <v>217000128</v>
       </c>
@@ -11324,7 +11333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:59" ht="91.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:59" ht="91.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="10">
         <v>217000137</v>
       </c>
@@ -11455,7 +11464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:59" ht="91.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:59" ht="91.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="10">
         <v>217000138</v>
       </c>
@@ -11586,7 +11595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:59" ht="91.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:59" ht="91.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="10">
         <v>217000139</v>
       </c>
@@ -11717,7 +11726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:59" ht="91.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:59" ht="91.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="10">
         <v>217000140</v>
       </c>
@@ -11848,7 +11857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:59" ht="91.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:59" ht="91.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="10">
         <v>217000141</v>
       </c>
@@ -11979,7 +11988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:59" ht="91.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:59" ht="91.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="10">
         <v>217000142</v>
       </c>
@@ -12124,17 +12133,17 @@
       <selection activeCell="BK1" sqref="BK1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="25.09765625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="25.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="41" max="41" width="25.09765625" style="16"/>
+    <col min="41" max="41" width="25.125" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:63" x14ac:dyDescent="0.2">
       <c r="AO1" s="16" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="3" spans="1:63" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:63" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>182</v>
       </c>
@@ -12325,7 +12334,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="4" spans="1:63" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:63" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
         <v>100</v>
       </c>
@@ -12492,7 +12501,7 @@
       </c>
       <c r="BK4" s="7"/>
     </row>
-    <row r="5" spans="1:63" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:63" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
         <v>100</v>
       </c>
@@ -12659,7 +12668,7 @@
       </c>
       <c r="BK5" s="7"/>
     </row>
-    <row r="6" spans="1:63" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:63" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>100</v>
       </c>
@@ -12826,7 +12835,7 @@
       </c>
       <c r="BK6" s="7"/>
     </row>
-    <row r="7" spans="1:63" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:63" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
         <v>100</v>
       </c>
@@ -12993,7 +13002,7 @@
       </c>
       <c r="BK7" s="7"/>
     </row>
-    <row r="8" spans="1:63" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:63" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
         <v>100</v>
       </c>
@@ -13160,7 +13169,7 @@
       </c>
       <c r="BK8" s="7"/>
     </row>
-    <row r="9" spans="1:63" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:63" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
         <v>100</v>
       </c>
@@ -13327,7 +13336,7 @@
       </c>
       <c r="BK9" s="7"/>
     </row>
-    <row r="10" spans="1:63" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:63" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
         <v>100</v>
       </c>
@@ -13494,7 +13503,7 @@
       </c>
       <c r="BK10" s="7"/>
     </row>
-    <row r="11" spans="1:63" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:63" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
         <v>100</v>
       </c>
@@ -13661,7 +13670,7 @@
       </c>
       <c r="BK11" s="7"/>
     </row>
-    <row r="12" spans="1:63" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:63" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
         <v>100</v>
       </c>
@@ -13828,7 +13837,7 @@
       </c>
       <c r="BK12" s="7"/>
     </row>
-    <row r="13" spans="1:63" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:63" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
         <v>100</v>
       </c>
@@ -13995,7 +14004,7 @@
       </c>
       <c r="BK13" s="7"/>
     </row>
-    <row r="14" spans="1:63" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:63" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
         <v>100</v>
       </c>
@@ -14162,7 +14171,7 @@
       </c>
       <c r="BK14" s="7"/>
     </row>
-    <row r="15" spans="1:63" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:63" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
         <v>100</v>
       </c>
@@ -14329,7 +14338,7 @@
       </c>
       <c r="BK15" s="7"/>
     </row>
-    <row r="16" spans="1:63" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:63" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
         <v>100</v>
       </c>
@@ -14496,7 +14505,7 @@
       </c>
       <c r="BK16" s="7"/>
     </row>
-    <row r="17" spans="1:63" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:63" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
         <v>100</v>
       </c>
@@ -14663,7 +14672,7 @@
       </c>
       <c r="BK17" s="7"/>
     </row>
-    <row r="18" spans="1:63" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:63" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
         <v>100</v>
       </c>
@@ -14830,7 +14839,7 @@
       </c>
       <c r="BK18" s="7"/>
     </row>
-    <row r="19" spans="1:63" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:63" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
         <v>100</v>
       </c>
@@ -14997,7 +15006,7 @@
       </c>
       <c r="BK19" s="7"/>
     </row>
-    <row r="20" spans="1:63" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:63" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
         <v>100</v>
       </c>
@@ -15164,7 +15173,7 @@
       </c>
       <c r="BK20" s="7"/>
     </row>
-    <row r="21" spans="1:63" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:63" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
         <v>100</v>
       </c>
@@ -15331,7 +15340,7 @@
       </c>
       <c r="BK21" s="7"/>
     </row>
-    <row r="22" spans="1:63" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:63" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
         <v>100</v>
       </c>
@@ -15498,7 +15507,7 @@
       </c>
       <c r="BK22" s="7"/>
     </row>
-    <row r="23" spans="1:63" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:63" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
         <v>100</v>
       </c>
@@ -15665,7 +15674,7 @@
       </c>
       <c r="BK23" s="7"/>
     </row>
-    <row r="24" spans="1:63" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:63" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
         <v>100</v>
       </c>
@@ -15832,7 +15841,7 @@
       </c>
       <c r="BK24" s="7"/>
     </row>
-    <row r="25" spans="1:63" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:63" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
         <v>100</v>
       </c>
@@ -15999,7 +16008,7 @@
       </c>
       <c r="BK25" s="7"/>
     </row>
-    <row r="26" spans="1:63" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:63" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A26" s="7" t="s">
         <v>100</v>
       </c>
@@ -16166,7 +16175,7 @@
       </c>
       <c r="BK26" s="7"/>
     </row>
-    <row r="27" spans="1:63" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:63" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A27" s="7" t="s">
         <v>100</v>
       </c>
@@ -16333,7 +16342,7 @@
       </c>
       <c r="BK27" s="7"/>
     </row>
-    <row r="28" spans="1:63" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:63" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A28" s="7" t="s">
         <v>100</v>
       </c>
@@ -16500,7 +16509,7 @@
       </c>
       <c r="BK28" s="7"/>
     </row>
-    <row r="29" spans="1:63" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:63" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A29" s="7" t="s">
         <v>100</v>
       </c>
@@ -16667,7 +16676,7 @@
       </c>
       <c r="BK29" s="7"/>
     </row>
-    <row r="30" spans="1:63" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:63" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A30" s="7" t="s">
         <v>100</v>
       </c>
@@ -16834,7 +16843,7 @@
       </c>
       <c r="BK30" s="7"/>
     </row>
-    <row r="31" spans="1:63" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:63" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="s">
         <v>100</v>
       </c>
@@ -17001,7 +17010,7 @@
       </c>
       <c r="BK31" s="7"/>
     </row>
-    <row r="32" spans="1:63" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:63" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A32" s="7" t="s">
         <v>100</v>
       </c>
@@ -17168,7 +17177,7 @@
       </c>
       <c r="BK32" s="7"/>
     </row>
-    <row r="33" spans="1:63" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:63" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A33" s="7" t="s">
         <v>100</v>
       </c>
@@ -17335,7 +17344,7 @@
       </c>
       <c r="BK33" s="7"/>
     </row>
-    <row r="34" spans="1:63" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:63" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A34" s="7" t="s">
         <v>100</v>
       </c>
@@ -17502,7 +17511,7 @@
       </c>
       <c r="BK34" s="7"/>
     </row>
-    <row r="35" spans="1:63" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:63" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A35" s="7" t="s">
         <v>100</v>
       </c>
@@ -17669,7 +17678,7 @@
       </c>
       <c r="BK35" s="7"/>
     </row>
-    <row r="36" spans="1:63" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:63" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A36" s="7" t="s">
         <v>100</v>
       </c>
@@ -17836,7 +17845,7 @@
       </c>
       <c r="BK36" s="7"/>
     </row>
-    <row r="37" spans="1:63" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:63" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A37" s="7" t="s">
         <v>100</v>
       </c>
@@ -18003,7 +18012,7 @@
       </c>
       <c r="BK37" s="7"/>
     </row>
-    <row r="38" spans="1:63" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:63" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A38" s="7" t="s">
         <v>100</v>
       </c>
@@ -18170,7 +18179,7 @@
       </c>
       <c r="BK38" s="7"/>
     </row>
-    <row r="39" spans="1:63" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:63" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A39" s="7" t="s">
         <v>100</v>
       </c>
@@ -18337,7 +18346,7 @@
       </c>
       <c r="BK39" s="7"/>
     </row>
-    <row r="40" spans="1:63" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:63" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="s">
         <v>100</v>
       </c>
@@ -18504,7 +18513,7 @@
       </c>
       <c r="BK40" s="7"/>
     </row>
-    <row r="41" spans="1:63" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:63" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A41" s="7" t="s">
         <v>100</v>
       </c>
@@ -18671,7 +18680,7 @@
       </c>
       <c r="BK41" s="7"/>
     </row>
-    <row r="42" spans="1:63" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:63" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A42" s="7" t="s">
         <v>100</v>
       </c>
@@ -18838,7 +18847,7 @@
       </c>
       <c r="BK42" s="7"/>
     </row>
-    <row r="43" spans="1:63" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:63" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A43" s="7" t="s">
         <v>100</v>
       </c>
@@ -19005,7 +19014,7 @@
       </c>
       <c r="BK43" s="7"/>
     </row>
-    <row r="44" spans="1:63" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:63" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A44" s="7" t="s">
         <v>100</v>
       </c>
@@ -19172,7 +19181,7 @@
       </c>
       <c r="BK44" s="7"/>
     </row>
-    <row r="45" spans="1:63" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:63" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A45" s="7" t="s">
         <v>100</v>
       </c>
@@ -19339,7 +19348,7 @@
       </c>
       <c r="BK45" s="7"/>
     </row>
-    <row r="46" spans="1:63" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:63" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A46" s="7" t="s">
         <v>100</v>
       </c>
@@ -19506,7 +19515,7 @@
       </c>
       <c r="BK46" s="7"/>
     </row>
-    <row r="47" spans="1:63" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:63" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A47" s="7" t="s">
         <v>100</v>
       </c>
@@ -19673,7 +19682,7 @@
       </c>
       <c r="BK47" s="7"/>
     </row>
-    <row r="48" spans="1:63" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:63" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A48" s="7" t="s">
         <v>100</v>
       </c>
@@ -19840,7 +19849,7 @@
       </c>
       <c r="BK48" s="7"/>
     </row>
-    <row r="49" spans="1:63" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:63" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A49" s="7" t="s">
         <v>100</v>
       </c>
@@ -20007,7 +20016,7 @@
       </c>
       <c r="BK49" s="7"/>
     </row>
-    <row r="50" spans="1:63" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:63" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A50" s="7" t="s">
         <v>100</v>
       </c>
@@ -20174,7 +20183,7 @@
       </c>
       <c r="BK50" s="7"/>
     </row>
-    <row r="51" spans="1:63" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:63" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A51" s="7" t="s">
         <v>100</v>
       </c>
@@ -20341,7 +20350,7 @@
       </c>
       <c r="BK51" s="7"/>
     </row>
-    <row r="52" spans="1:63" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:63" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A52" s="7" t="s">
         <v>100</v>
       </c>
@@ -20508,7 +20517,7 @@
       </c>
       <c r="BK52" s="7"/>
     </row>
-    <row r="53" spans="1:63" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:63" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A53" s="7" t="s">
         <v>100</v>
       </c>
@@ -20675,7 +20684,7 @@
       </c>
       <c r="BK53" s="7"/>
     </row>
-    <row r="54" spans="1:63" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:63" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A54" s="7" t="s">
         <v>100</v>
       </c>
@@ -20842,7 +20851,7 @@
       </c>
       <c r="BK54" s="7"/>
     </row>
-    <row r="55" spans="1:63" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:63" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A55" s="7" t="s">
         <v>100</v>
       </c>
@@ -21009,7 +21018,7 @@
       </c>
       <c r="BK55" s="7"/>
     </row>
-    <row r="56" spans="1:63" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:63" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A56" s="7" t="s">
         <v>100</v>
       </c>
@@ -21176,7 +21185,7 @@
       </c>
       <c r="BK56" s="7"/>
     </row>
-    <row r="57" spans="1:63" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:63" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A57" s="7" t="s">
         <v>100</v>
       </c>
@@ -21343,7 +21352,7 @@
       </c>
       <c r="BK57" s="7"/>
     </row>
-    <row r="58" spans="1:63" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:63" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A58" s="7" t="s">
         <v>100</v>
       </c>
@@ -21510,7 +21519,7 @@
       </c>
       <c r="BK58" s="7"/>
     </row>
-    <row r="59" spans="1:63" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:63" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A59" s="7" t="s">
         <v>100</v>
       </c>
@@ -21677,7 +21686,7 @@
       </c>
       <c r="BK59" s="7"/>
     </row>
-    <row r="60" spans="1:63" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:63" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A60" s="7" t="s">
         <v>100</v>
       </c>
@@ -21844,7 +21853,7 @@
       </c>
       <c r="BK60" s="7"/>
     </row>
-    <row r="61" spans="1:63" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:63" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A61" s="7" t="s">
         <v>100</v>
       </c>
@@ -22011,7 +22020,7 @@
       </c>
       <c r="BK61" s="7"/>
     </row>
-    <row r="62" spans="1:63" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:63" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A62" s="7" t="s">
         <v>100</v>
       </c>
@@ -22178,7 +22187,7 @@
       </c>
       <c r="BK62" s="7"/>
     </row>
-    <row r="63" spans="1:63" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:63" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A63" s="7" t="s">
         <v>100</v>
       </c>
@@ -22345,7 +22354,7 @@
       </c>
       <c r="BK63" s="7"/>
     </row>
-    <row r="64" spans="1:63" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:63" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A64" s="7" t="s">
         <v>100</v>
       </c>
@@ -22522,7 +22531,7 @@
       </c>
       <c r="BK64" s="7"/>
     </row>
-    <row r="65" spans="1:63" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:63" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A65" s="7" t="s">
         <v>100</v>
       </c>
@@ -22689,7 +22698,7 @@
       </c>
       <c r="BK65" s="7"/>
     </row>
-    <row r="66" spans="1:63" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:63" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A66" s="7" t="s">
         <v>100</v>
       </c>
@@ -22856,7 +22865,7 @@
       </c>
       <c r="BK66" s="7"/>
     </row>
-    <row r="67" spans="1:63" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:63" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A67" s="7" t="s">
         <v>100</v>
       </c>
@@ -23023,7 +23032,7 @@
       </c>
       <c r="BK67" s="7"/>
     </row>
-    <row r="68" spans="1:63" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:63" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A68" s="7" t="s">
         <v>100</v>
       </c>
@@ -23190,7 +23199,7 @@
       </c>
       <c r="BK68" s="7"/>
     </row>
-    <row r="69" spans="1:63" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:63" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A69" s="7" t="s">
         <v>100</v>
       </c>
@@ -23357,7 +23366,7 @@
       </c>
       <c r="BK69" s="7"/>
     </row>
-    <row r="70" spans="1:63" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:63" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A70" s="7" t="s">
         <v>100</v>
       </c>
@@ -23524,7 +23533,7 @@
       </c>
       <c r="BK70" s="7"/>
     </row>
-    <row r="71" spans="1:63" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:63" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A71" s="7" t="s">
         <v>100</v>
       </c>
@@ -23691,7 +23700,7 @@
       </c>
       <c r="BK71" s="7"/>
     </row>
-    <row r="72" spans="1:63" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:63" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A72" s="7" t="s">
         <v>100</v>
       </c>
@@ -23858,7 +23867,7 @@
       </c>
       <c r="BK72" s="7"/>
     </row>
-    <row r="73" spans="1:63" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:63" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A73" s="7" t="s">
         <v>100</v>
       </c>
@@ -24025,7 +24034,7 @@
       </c>
       <c r="BK73" s="7"/>
     </row>
-    <row r="74" spans="1:63" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:63" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A74" s="7" t="s">
         <v>100</v>
       </c>
@@ -24192,7 +24201,7 @@
       </c>
       <c r="BK74" s="7"/>
     </row>
-    <row r="75" spans="1:63" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:63" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A75" s="7" t="s">
         <v>100</v>
       </c>
@@ -24359,7 +24368,7 @@
       </c>
       <c r="BK75" s="7"/>
     </row>
-    <row r="76" spans="1:63" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:63" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A76" s="7" t="s">
         <v>100</v>
       </c>
@@ -24526,7 +24535,7 @@
       </c>
       <c r="BK76" s="7"/>
     </row>
-    <row r="77" spans="1:63" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:63" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A77" s="7" t="s">
         <v>100</v>
       </c>
@@ -24693,7 +24702,7 @@
       </c>
       <c r="BK77" s="7"/>
     </row>
-    <row r="78" spans="1:63" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:63" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A78" s="7" t="s">
         <v>100</v>
       </c>
@@ -24860,7 +24869,7 @@
       </c>
       <c r="BK78" s="7"/>
     </row>
-    <row r="79" spans="1:63" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:63" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A79" s="7" t="s">
         <v>100</v>
       </c>
@@ -25027,7 +25036,7 @@
       </c>
       <c r="BK79" s="7"/>
     </row>
-    <row r="80" spans="1:63" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:63" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A80" s="7" t="s">
         <v>100</v>
       </c>
@@ -25194,7 +25203,7 @@
       </c>
       <c r="BK80" s="7"/>
     </row>
-    <row r="81" spans="1:63" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:63" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A81" s="7" t="s">
         <v>100</v>
       </c>
@@ -25375,14 +25384,14 @@
       <selection activeCell="H75" sqref="H75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="16" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>247</v>
       </c>
@@ -25401,7 +25410,7 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
